--- a/Product.xlsx
+++ b/Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\test123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32B6B4-88C0-4D1F-B31E-3E490A47F27A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB06DF5C-5234-4C03-88D4-5316C0702B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -226,7 +226,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
-  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -530,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -620,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -657,7 +663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -694,7 +700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>17</v>
       </c>
@@ -708,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>21</v>
       </c>
@@ -745,7 +751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>18</v>
       </c>
@@ -756,7 +762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>21</v>
       </c>
